--- a/xlsx/维基媒体分会列表_intext.xlsx
+++ b/xlsx/维基媒体分会列表_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_维基媒体分会列表</t>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_维基媒体分会列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -167,25 +167,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
+    <t>维基媒体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -275,19 +275,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
   </si>
   <si>
-    <t>維基語錄</t>
+    <t>维基语录</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/</t>
@@ -299,25 +299,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>維基共享資源</t>
+    <t>维基共享资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>維基物種</t>
+    <t>维基物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
+    <t>维基新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MediaWiki</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
 </sst>
 </file>
